--- a/data/trans_orig/P1001-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1001-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDE892D7-8B79-42FD-ABFF-B2DE7D50E321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{677DAB69-16B9-4408-9BBC-91B29FB2654A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE1CB4B8-F963-42FB-9441-E978FC60B8C6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2B81D2B0-5EA4-400A-974A-DBEB9950FA43}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>11,16%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
   </si>
   <si>
     <t>12,57%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>88,84%</t>
   </si>
   <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
   </si>
   <si>
     <t>87,43%</t>
   </si>
   <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,778 +140,784 @@
     <t>3,58%</t>
   </si>
   <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
   </si>
   <si>
     <t>97,22%</t>
   </si>
   <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
   </si>
   <si>
     <t>89,54%</t>
   </si>
   <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
     <t>90,94%</t>
   </si>
   <si>
-    <t>90,18%</t>
+    <t>90,19%</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A480D47-49A0-45A4-B627-2FFB27A6D7C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2574BE-3CAA-4C28-AF54-C0AA50E07272}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1939,7 +1945,7 @@
         <v>504</v>
       </c>
       <c r="N13" s="7">
-        <v>516513</v>
+        <v>516514</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -2041,7 +2047,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2074,7 +2080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AF2794-33D1-4A1F-8336-35D59BC18CD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66709F47-1BD9-46C5-973B-B1A6B7A08B0F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2726,7 +2732,7 @@
         <v>2811</v>
       </c>
       <c r="I14" s="7">
-        <v>3033540</v>
+        <v>3033539</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>155</v>
@@ -2777,7 +2783,7 @@
         <v>3293</v>
       </c>
       <c r="I15" s="7">
-        <v>3553176</v>
+        <v>3553175</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2825,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFD2693-38E2-41AB-8484-FD27EC879378}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4875D5A6-5FB9-423B-B6FF-A0B307C2CB29}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3122,10 +3128,10 @@
         <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>267</v>
@@ -3134,13 +3140,13 @@
         <v>292295</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,10 +3164,10 @@
         <v>63</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>1750</v>
@@ -3170,13 +3176,13 @@
         <v>1816180</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>3593</v>
@@ -3185,13 +3191,13 @@
         <v>3772390</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3265,13 @@
         <v>16271</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -3274,13 +3280,13 @@
         <v>33641</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -3289,13 +3295,13 @@
         <v>49913</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3316,13 @@
         <v>530615</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>494</v>
@@ -3325,13 +3331,13 @@
         <v>515499</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>980</v>
@@ -3340,13 +3346,13 @@
         <v>1046113</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3420,13 @@
         <v>205975</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>386</v>
@@ -3429,13 +3435,13 @@
         <v>432259</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>581</v>
@@ -3444,13 +3450,13 @@
         <v>638234</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3471,13 @@
         <v>3171643</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>2940</v>
@@ -3480,13 +3486,13 @@
         <v>3099841</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>5960</v>
@@ -3576,7 +3582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495B5FE1-F048-433B-A663-7CF420D2DCDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3B27D3-93E7-4A19-A33D-604CB86209EA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3870,13 +3876,13 @@
         <v>188390</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>376</v>
@@ -3885,13 +3891,13 @@
         <v>304950</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>130</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3912,13 @@
         <v>2044864</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>2655</v>
@@ -3921,13 +3927,13 @@
         <v>2060098</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>121</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>86</v>
       </c>
       <c r="M8" s="7">
         <v>4534</v>
@@ -3936,13 +3942,13 @@
         <v>4104962</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +4016,13 @@
         <v>27629</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -4025,13 +4031,13 @@
         <v>52427</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -4040,13 +4046,13 @@
         <v>80055</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4067,13 @@
         <v>645410</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>933</v>
@@ -4076,7 +4082,7 @@
         <v>661459</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>272</v>
@@ -4168,10 +4174,10 @@
         <v>277</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>655</v>
@@ -4180,13 +4186,13 @@
         <v>440665</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>878</v>
@@ -4195,13 +4201,13 @@
         <v>649988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,28 +4222,28 @@
         <v>3166085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>4692</v>
       </c>
       <c r="I14" s="7">
-        <v>3356084</v>
+        <v>3356083</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>7831</v>
@@ -4246,13 +4252,13 @@
         <v>6522169</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,7 +4285,7 @@
         <v>5347</v>
       </c>
       <c r="I15" s="7">
-        <v>3796749</v>
+        <v>3796748</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P1001-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1001-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{677DAB69-16B9-4408-9BBC-91B29FB2654A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCA0D8C3-5F88-4731-BA78-BC905D05593D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2B81D2B0-5EA4-400A-974A-DBEB9950FA43}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{134CBAE8-4E79-487A-8031-C010F9471BE0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -80,25 +80,25 @@
     <t>9,37%</t>
   </si>
   <si>
-    <t>13,38%</t>
+    <t>13,27%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
   </si>
   <si>
     <t>12,57%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>88,84%</t>
   </si>
   <si>
-    <t>86,62%</t>
+    <t>86,73%</t>
   </si>
   <si>
     <t>90,63%</t>
@@ -116,19 +116,19 @@
     <t>86,32%</t>
   </si>
   <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
   </si>
   <si>
     <t>87,43%</t>
   </si>
   <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,10 +140,10 @@
     <t>3,58%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
   </si>
   <si>
     <t>6,98%</t>
@@ -161,16 +161,16 @@
     <t>4,48%</t>
   </si>
   <si>
-    <t>6,17%</t>
+    <t>6,03%</t>
   </si>
   <si>
     <t>96,42%</t>
   </si>
   <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
   </si>
   <si>
     <t>93,02%</t>
@@ -185,7 +185,7 @@
     <t>94,77%</t>
   </si>
   <si>
-    <t>93,83%</t>
+    <t>93,97%</t>
   </si>
   <si>
     <t>95,52%</t>
@@ -197,622 +197,634 @@
     <t>4,08%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
   </si>
   <si>
     <t>95,92%</t>
   </si>
   <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>94,21%</t>
   </si>
   <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
     <t>7,09%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
   </si>
   <si>
     <t>92,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
   </si>
   <si>
     <t>92,23%</t>
@@ -1329,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2574BE-3CAA-4C28-AF54-C0AA50E07272}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1680A92-640A-41DE-B0A0-7BEB4A3C337D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1656,7 +1668,7 @@
         <v>1589</v>
       </c>
       <c r="D8" s="7">
-        <v>1632754</v>
+        <v>1632755</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1707,7 +1719,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1915,7 +1927,7 @@
         <v>196</v>
       </c>
       <c r="D13" s="7">
-        <v>198239</v>
+        <v>198238</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -2017,7 +2029,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2080,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66709F47-1BD9-46C5-973B-B1A6B7A08B0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB14F2EE-9DB1-4AE9-AEE3-29CAE75B394F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2386,7 +2398,7 @@
         <v>245</v>
       </c>
       <c r="N7" s="7">
-        <v>264286</v>
+        <v>264287</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>113</v>
@@ -2407,7 +2419,7 @@
         <v>1768</v>
       </c>
       <c r="D8" s="7">
-        <v>1871574</v>
+        <v>1871575</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>116</v>
@@ -2458,7 +2470,7 @@
         <v>1854</v>
       </c>
       <c r="D9" s="7">
-        <v>1961966</v>
+        <v>1961967</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2488,7 +2500,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3719769</v>
+        <v>3719770</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2547,10 +2559,10 @@
         <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,13 +2577,13 @@
         <v>458705</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>391</v>
@@ -2580,13 +2592,13 @@
         <v>434979</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>813</v>
@@ -2595,13 +2607,13 @@
         <v>893684</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2681,13 @@
         <v>241936</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>482</v>
@@ -2684,13 +2696,13 @@
         <v>519636</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>701</v>
@@ -2699,13 +2711,13 @@
         <v>761571</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,28 +2732,28 @@
         <v>3175855</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2811</v>
       </c>
       <c r="I14" s="7">
-        <v>3033539</v>
+        <v>3033540</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>5792</v>
@@ -2750,13 +2762,13 @@
         <v>6209395</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,7 +2795,7 @@
         <v>3293</v>
       </c>
       <c r="I15" s="7">
-        <v>3553175</v>
+        <v>3553176</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2831,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4875D5A6-5FB9-423B-B6FF-A0B307C2CB29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A01A1EA-F507-4B70-955D-81C8651E0D33}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2848,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2955,13 +2967,13 @@
         <v>69529</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>196</v>
@@ -2970,13 +2982,13 @@
         <v>226498</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>267</v>
@@ -2985,13 +2997,13 @@
         <v>296026</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3018,13 @@
         <v>684818</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>696</v>
@@ -3021,13 +3033,13 @@
         <v>768162</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>1387</v>
@@ -3036,13 +3048,13 @@
         <v>1452981</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,10 +3125,10 @@
         <v>54</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -3125,13 +3137,13 @@
         <v>172120</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>267</v>
@@ -3140,13 +3152,13 @@
         <v>292295</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,7 +3194,7 @@
         <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>3593</v>
@@ -3191,13 +3203,13 @@
         <v>3772390</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3277,13 @@
         <v>16271</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -3280,13 +3292,13 @@
         <v>33641</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -3295,13 +3307,13 @@
         <v>49913</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3328,13 @@
         <v>530615</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>494</v>
@@ -3331,13 +3343,13 @@
         <v>515499</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>980</v>
@@ -3346,13 +3358,13 @@
         <v>1046113</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3432,13 @@
         <v>205975</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>386</v>
@@ -3435,13 +3447,13 @@
         <v>432259</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>581</v>
@@ -3450,13 +3462,13 @@
         <v>638234</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3483,13 @@
         <v>3171643</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>2940</v>
@@ -3486,13 +3498,13 @@
         <v>3099841</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>5960</v>
@@ -3501,13 +3513,13 @@
         <v>6271484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3B27D3-93E7-4A19-A33D-604CB86209EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098ACCC8-ADFB-4B41-8677-D7F42034D321}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3599,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3706,13 +3718,13 @@
         <v>65134</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>320</v>
@@ -3721,13 +3733,13 @@
         <v>199848</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>403</v>
@@ -3736,13 +3748,13 @@
         <v>264982</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3769,13 @@
         <v>475812</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>1104</v>
@@ -3772,13 +3784,13 @@
         <v>634526</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>1711</v>
@@ -3787,13 +3799,13 @@
         <v>1110338</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3873,13 @@
         <v>116560</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>264</v>
@@ -3876,13 +3888,13 @@
         <v>188390</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>376</v>
@@ -3891,13 +3903,13 @@
         <v>304950</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>71</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3924,13 @@
         <v>2044864</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>2655</v>
@@ -3927,13 +3939,13 @@
         <v>2060098</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>121</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>4534</v>
@@ -3942,13 +3954,13 @@
         <v>4104962</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4028,13 @@
         <v>27629</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -4031,13 +4043,13 @@
         <v>52427</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -4046,13 +4058,13 @@
         <v>80055</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4079,13 @@
         <v>645410</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>933</v>
@@ -4082,13 +4094,13 @@
         <v>661459</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>1586</v>
@@ -4097,13 +4109,13 @@
         <v>1306871</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4183,13 @@
         <v>209323</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>655</v>
@@ -4186,13 +4198,13 @@
         <v>440665</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>878</v>
@@ -4201,13 +4213,13 @@
         <v>649988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4234,13 @@
         <v>3166085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>4692</v>
@@ -4237,13 +4249,13 @@
         <v>3356083</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>7831</v>
@@ -4252,13 +4264,13 @@
         <v>6522169</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>121</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1001-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1001-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCA0D8C3-5F88-4731-BA78-BC905D05593D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6484132-1B18-4D9E-B0D3-0F6F2D257FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{134CBAE8-4E79-487A-8031-C010F9471BE0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6300EDB1-DCF2-4321-839A-5022E9FB4E65}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>11,16%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
   </si>
   <si>
     <t>12,57%</t>
   </si>
   <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>88,84%</t>
   </si>
   <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
   </si>
   <si>
     <t>87,43%</t>
   </si>
   <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>3,58%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
   </si>
   <si>
     <t>6,98%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
   </si>
   <si>
     <t>96,42%</t>
   </si>
   <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>93,02%</t>
   </si>
   <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
   </si>
   <si>
     <t>94,77%</t>
   </si>
   <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,739 +197,721 @@
     <t>4,08%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
   </si>
   <si>
     <t>95,92%</t>
   </si>
   <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
   </si>
   <si>
     <t>94,21%</t>
   </si>
   <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>5,26%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>6,92%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
   </si>
   <si>
     <t>93,08%</t>
   </si>
   <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>95,89%</t>
   </si>
   <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>94,23%</t>
   </si>
   <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
+    <t>7,15%</t>
   </si>
   <si>
     <t>11,61%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
   </si>
   <si>
     <t>9,06%</t>
   </si>
   <si>
-    <t>9,81%</t>
+    <t>9,82%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>92,85%</t>
   </si>
   <si>
     <t>88,39%</t>
   </si>
   <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>90,94%</t>
   </si>
   <si>
-    <t>90,19%</t>
+    <t>90,18%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1680A92-640A-41DE-B0A0-7BEB4A3C337D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52828399-4BDE-4AC6-8128-61510E2E364C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1668,7 +1650,7 @@
         <v>1589</v>
       </c>
       <c r="D8" s="7">
-        <v>1632755</v>
+        <v>1632754</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1719,7 +1701,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1927,7 +1909,7 @@
         <v>196</v>
       </c>
       <c r="D13" s="7">
-        <v>198238</v>
+        <v>198239</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1957,7 +1939,7 @@
         <v>504</v>
       </c>
       <c r="N13" s="7">
-        <v>516514</v>
+        <v>516513</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -2029,7 +2011,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2059,7 +2041,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2092,7 +2074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB14F2EE-9DB1-4AE9-AEE3-29CAE75B394F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21697153-EAF4-4858-8F92-566F403C7DF3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2398,7 +2380,7 @@
         <v>245</v>
       </c>
       <c r="N7" s="7">
-        <v>264287</v>
+        <v>264286</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>113</v>
@@ -2419,7 +2401,7 @@
         <v>1768</v>
       </c>
       <c r="D8" s="7">
-        <v>1871575</v>
+        <v>1871574</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>116</v>
@@ -2470,7 +2452,7 @@
         <v>1854</v>
       </c>
       <c r="D9" s="7">
-        <v>1961967</v>
+        <v>1961966</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2500,7 +2482,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3719770</v>
+        <v>3719769</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2559,10 +2541,10 @@
         <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2559,13 @@
         <v>458705</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>391</v>
@@ -2592,13 +2574,13 @@
         <v>434979</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>813</v>
@@ -2607,13 +2589,13 @@
         <v>893684</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2663,13 @@
         <v>241936</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>482</v>
@@ -2696,13 +2678,13 @@
         <v>519636</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>701</v>
@@ -2711,13 +2693,13 @@
         <v>761571</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2714,13 @@
         <v>3175855</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2811</v>
@@ -2747,13 +2729,13 @@
         <v>3033540</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>5792</v>
@@ -2762,13 +2744,13 @@
         <v>6209395</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A01A1EA-F507-4B70-955D-81C8651E0D33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3565E72C-FBBE-4FFA-ACF5-32FE6EB1AAA8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2860,7 +2842,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2967,13 +2949,13 @@
         <v>69529</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>196</v>
@@ -2982,13 +2964,13 @@
         <v>226498</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>267</v>
@@ -2997,13 +2979,13 @@
         <v>296026</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3000,13 @@
         <v>684818</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>696</v>
@@ -3033,13 +3015,13 @@
         <v>768162</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>1387</v>
@@ -3048,13 +3030,13 @@
         <v>1452981</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,10 +3107,10 @@
         <v>54</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -3137,13 +3119,13 @@
         <v>172120</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>267</v>
@@ -3152,13 +3134,13 @@
         <v>292295</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,10 +3158,10 @@
         <v>63</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>1750</v>
@@ -3188,13 +3170,13 @@
         <v>1816180</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>3593</v>
@@ -3203,13 +3185,13 @@
         <v>3772390</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3259,13 @@
         <v>16271</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -3292,13 +3274,13 @@
         <v>33641</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -3307,13 +3289,13 @@
         <v>49913</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,10 +3310,10 @@
         <v>530615</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>205</v>
@@ -3450,10 +3432,10 @@
         <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>581</v>
@@ -3462,13 +3444,13 @@
         <v>638234</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3465,13 @@
         <v>3171643</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>2940</v>
@@ -3498,13 +3480,13 @@
         <v>3099841</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>5960</v>
@@ -3513,13 +3495,13 @@
         <v>6271484</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,7 +3576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098ACCC8-ADFB-4B41-8677-D7F42034D321}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C6057A-7070-4F24-9932-30B3E48131AD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3593,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3718,13 +3700,13 @@
         <v>65134</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>320</v>
@@ -3733,13 +3715,13 @@
         <v>199848</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>403</v>
@@ -3748,13 +3730,13 @@
         <v>264982</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3751,13 @@
         <v>475812</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>1104</v>
@@ -3784,13 +3766,13 @@
         <v>634526</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>1711</v>
@@ -3799,13 +3781,13 @@
         <v>1110338</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3855,13 @@
         <v>116560</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>264</v>
@@ -3888,13 +3870,13 @@
         <v>188390</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>376</v>
@@ -3903,13 +3885,13 @@
         <v>304950</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>71</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3906,13 @@
         <v>2044864</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>2655</v>
@@ -3939,13 +3921,13 @@
         <v>2060098</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>4534</v>
@@ -3954,13 +3936,13 @@
         <v>4104962</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>221</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4010,13 @@
         <v>27629</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -4043,13 +4025,13 @@
         <v>52427</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -4058,13 +4040,13 @@
         <v>80055</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4061,13 @@
         <v>645410</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>933</v>
@@ -4094,13 +4076,13 @@
         <v>661459</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>1586</v>
@@ -4109,13 +4091,13 @@
         <v>1306871</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4165,13 @@
         <v>209323</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>655</v>
@@ -4198,13 +4180,13 @@
         <v>440665</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>878</v>
@@ -4213,13 +4195,13 @@
         <v>649988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,28 +4216,28 @@
         <v>3166085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
         <v>4692</v>
       </c>
       <c r="I14" s="7">
-        <v>3356083</v>
+        <v>3356084</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>7831</v>
@@ -4264,13 +4246,13 @@
         <v>6522169</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,7 +4279,7 @@
         <v>5347</v>
       </c>
       <c r="I15" s="7">
-        <v>3796748</v>
+        <v>3796749</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P1001-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1001-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6484132-1B18-4D9E-B0D3-0F6F2D257FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1431CD3-F5B7-4A89-8359-FA26CAE77214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6300EDB1-DCF2-4321-839A-5022E9FB4E65}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A70219B6-C26B-41FF-A563-7D1FAF641B7D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -728,190 +728,190 @@
     <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>7,14%</t>
+    <t>7,15%</t>
   </si>
   <si>
     <t>95,89%</t>
   </si>
   <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
   </si>
   <si>
     <t>95,37%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52828399-4BDE-4AC6-8128-61510E2E364C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A239205B-E8C9-414D-84E1-6FABED7B1304}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1525,7 +1525,7 @@
         <v>2039</v>
       </c>
       <c r="N5" s="7">
-        <v>2051846</v>
+        <v>2051845</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1576,7 +1576,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1650,7 +1650,7 @@
         <v>1589</v>
       </c>
       <c r="D8" s="7">
-        <v>1632754</v>
+        <v>1632755</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1701,7 +1701,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1909,7 +1909,7 @@
         <v>196</v>
       </c>
       <c r="D13" s="7">
-        <v>198239</v>
+        <v>198238</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1939,7 +1939,7 @@
         <v>504</v>
       </c>
       <c r="N13" s="7">
-        <v>516513</v>
+        <v>516514</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1975,7 +1975,7 @@
         <v>2989</v>
       </c>
       <c r="I14" s="7">
-        <v>3060923</v>
+        <v>3060922</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2011,7 +2011,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2026,7 +2026,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2041,7 +2041,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2074,7 +2074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21697153-EAF4-4858-8F92-566F403C7DF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5967B5-B30D-417F-B4AC-3C2756BDAD76}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2276,7 +2276,7 @@
         <v>1735</v>
       </c>
       <c r="N5" s="7">
-        <v>1860227</v>
+        <v>1860228</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>104</v>
@@ -2327,7 +2327,7 @@
         <v>2154</v>
       </c>
       <c r="N6" s="7">
-        <v>2311384</v>
+        <v>2311385</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2401,7 +2401,7 @@
         <v>1768</v>
       </c>
       <c r="D8" s="7">
-        <v>1871574</v>
+        <v>1871575</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>116</v>
@@ -2452,7 +2452,7 @@
         <v>1854</v>
       </c>
       <c r="D9" s="7">
-        <v>1961966</v>
+        <v>1961967</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2586,7 +2586,7 @@
         <v>813</v>
       </c>
       <c r="N11" s="7">
-        <v>893684</v>
+        <v>893685</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>140</v>
@@ -2637,7 +2637,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2726,7 +2726,7 @@
         <v>2811</v>
       </c>
       <c r="I14" s="7">
-        <v>3033540</v>
+        <v>3033539</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>155</v>
@@ -2777,7 +2777,7 @@
         <v>3293</v>
       </c>
       <c r="I15" s="7">
-        <v>3553176</v>
+        <v>3553175</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2825,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3565E72C-FBBE-4FFA-ACF5-32FE6EB1AAA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB817887-35B7-4E23-9AAF-6EEE1067DD98}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3337,7 +3337,7 @@
         <v>980</v>
       </c>
       <c r="N11" s="7">
-        <v>1046113</v>
+        <v>1046114</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>209</v>
@@ -3388,7 +3388,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3576,7 +3576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C6057A-7070-4F24-9932-30B3E48131AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FF322E-4539-45F9-9BA8-2F2A9DBFA35B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3697,7 +3697,7 @@
         <v>83</v>
       </c>
       <c r="D4" s="7">
-        <v>65134</v>
+        <v>60187</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>229</v>
@@ -3712,7 +3712,7 @@
         <v>320</v>
       </c>
       <c r="I4" s="7">
-        <v>199848</v>
+        <v>175007</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>232</v>
@@ -3727,7 +3727,7 @@
         <v>403</v>
       </c>
       <c r="N4" s="7">
-        <v>264982</v>
+        <v>235194</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>235</v>
@@ -3748,7 +3748,7 @@
         <v>607</v>
       </c>
       <c r="D5" s="7">
-        <v>475812</v>
+        <v>454116</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>238</v>
@@ -3763,7 +3763,7 @@
         <v>1104</v>
       </c>
       <c r="I5" s="7">
-        <v>634526</v>
+        <v>579109</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>241</v>
@@ -3778,7 +3778,7 @@
         <v>1711</v>
       </c>
       <c r="N5" s="7">
-        <v>1110338</v>
+        <v>1033225</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>244</v>
@@ -3799,7 +3799,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540946</v>
+        <v>514303</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3814,7 +3814,7 @@
         <v>1424</v>
       </c>
       <c r="I6" s="7">
-        <v>834374</v>
+        <v>754116</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3829,7 +3829,7 @@
         <v>2114</v>
       </c>
       <c r="N6" s="7">
-        <v>1375320</v>
+        <v>1268419</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3852,46 +3852,46 @@
         <v>112</v>
       </c>
       <c r="D7" s="7">
-        <v>116560</v>
+        <v>111510</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>248</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>264</v>
       </c>
       <c r="I7" s="7">
-        <v>188390</v>
+        <v>170216</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>376</v>
       </c>
       <c r="N7" s="7">
-        <v>304950</v>
+        <v>281726</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,46 +3903,46 @@
         <v>1879</v>
       </c>
       <c r="D8" s="7">
-        <v>2044864</v>
+        <v>2178247</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>2655</v>
       </c>
       <c r="I8" s="7">
-        <v>2060098</v>
+        <v>2066641</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>4534</v>
       </c>
       <c r="N8" s="7">
-        <v>4104962</v>
+        <v>4244888</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,7 +3954,7 @@
         <v>1991</v>
       </c>
       <c r="D9" s="7">
-        <v>2161424</v>
+        <v>2289757</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3969,7 +3969,7 @@
         <v>2919</v>
       </c>
       <c r="I9" s="7">
-        <v>2248488</v>
+        <v>2236857</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3984,7 +3984,7 @@
         <v>4910</v>
       </c>
       <c r="N9" s="7">
-        <v>4409912</v>
+        <v>4526614</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4007,7 +4007,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>27629</v>
+        <v>26591</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>261</v>
@@ -4022,31 +4022,31 @@
         <v>71</v>
       </c>
       <c r="I10" s="7">
-        <v>52427</v>
+        <v>48552</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
       </c>
       <c r="N10" s="7">
-        <v>80055</v>
+        <v>75143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,46 +4058,46 @@
         <v>653</v>
       </c>
       <c r="D11" s="7">
-        <v>645410</v>
+        <v>620032</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>933</v>
       </c>
       <c r="I11" s="7">
-        <v>661459</v>
+        <v>611911</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>1586</v>
       </c>
       <c r="N11" s="7">
-        <v>1306871</v>
+        <v>1231943</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,7 +4109,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4124,7 +4124,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4139,7 +4139,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4162,46 +4162,46 @@
         <v>223</v>
       </c>
       <c r="D13" s="7">
-        <v>209323</v>
+        <v>198288</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>655</v>
       </c>
       <c r="I13" s="7">
-        <v>440665</v>
+        <v>393775</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>878</v>
       </c>
       <c r="N13" s="7">
-        <v>649988</v>
+        <v>592063</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,46 +4213,46 @@
         <v>3139</v>
       </c>
       <c r="D14" s="7">
-        <v>3166085</v>
+        <v>3252395</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
         <v>4692</v>
       </c>
       <c r="I14" s="7">
-        <v>3356084</v>
+        <v>3257661</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>7831</v>
       </c>
       <c r="N14" s="7">
-        <v>6522169</v>
+        <v>6510055</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,7 +4264,7 @@
         <v>3362</v>
       </c>
       <c r="D15" s="7">
-        <v>3375408</v>
+        <v>3450683</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4279,7 +4279,7 @@
         <v>5347</v>
       </c>
       <c r="I15" s="7">
-        <v>3796749</v>
+        <v>3651436</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4294,7 +4294,7 @@
         <v>8709</v>
       </c>
       <c r="N15" s="7">
-        <v>7172157</v>
+        <v>7102118</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
